--- a/Adloori_gradingRubric.xlsx
+++ b/Adloori_gradingRubric.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533985\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533985\Downloads\Labexam1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t xml:space="preserve">                                                    Question</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>Marks</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1 for not decreasing the accountBalance if sufficient funds are available</t>
   </si>
 </sst>
 </file>
@@ -507,6 +513,106 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -540,106 +646,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -654,14 +660,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E38" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E38"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="S. No." dataDxfId="4"/>
-    <tableColumn id="2" name="                                                    Question" dataDxfId="3"/>
-    <tableColumn id="3" name="Points" dataDxfId="2"/>
-    <tableColumn id="4" name="Comments" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F38" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:F38"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="S. No." dataDxfId="3"/>
+    <tableColumn id="2" name="                                                    Question" dataDxfId="2"/>
+    <tableColumn id="3" name="Points" dataDxfId="1"/>
+    <tableColumn id="4" name="Comments" dataDxfId="0"/>
     <tableColumn id="5" name="Marks"/>
+    <tableColumn id="6" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -930,21 +937,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.28515625" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" customWidth="1"/>
+    <col min="6" max="6" width="66.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
@@ -960,8 +968,11 @@
       <c r="E1" s="29" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>12</v>
       </c>
@@ -969,7 +980,7 @@
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -982,8 +993,11 @@
       <c r="D3" s="23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>2</v>
       </c>
@@ -996,8 +1010,11 @@
       <c r="D4" s="23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>3</v>
       </c>
@@ -1010,8 +1027,11 @@
       <c r="D5" s="23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
@@ -1019,7 +1039,7 @@
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -1028,8 +1048,11 @@
         <v>0.5</v>
       </c>
       <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="5" t="s">
         <v>14</v>
@@ -1038,8 +1061,11 @@
         <v>0.5</v>
       </c>
       <c r="D8" s="23"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="5" t="s">
         <v>15</v>
@@ -1048,8 +1074,11 @@
         <v>0.5</v>
       </c>
       <c r="D9" s="23"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="5" t="s">
         <v>16</v>
@@ -1058,8 +1087,11 @@
         <v>0.5</v>
       </c>
       <c r="D10" s="23"/>
-    </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="5" t="s">
         <v>21</v>
@@ -1070,8 +1102,11 @@
       <c r="D11" s="23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="5" t="s">
         <v>20</v>
@@ -1082,8 +1117,11 @@
       <c r="D12" s="23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="5" t="s">
         <v>22</v>
@@ -1094,8 +1132,11 @@
       <c r="D13" s="23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="5" t="s">
         <v>23</v>
@@ -1104,8 +1145,11 @@
         <v>0.5</v>
       </c>
       <c r="D14" s="23"/>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="5" t="s">
         <v>24</v>
@@ -1116,8 +1160,11 @@
       <c r="D15" s="23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="5" t="s">
         <v>26</v>
@@ -1128,8 +1175,11 @@
       <c r="D16" s="23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="4" t="s">
         <v>27</v>
@@ -1140,8 +1190,14 @@
       <c r="D17" s="23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>29</v>
       </c>
@@ -1149,7 +1205,7 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -1159,7 +1215,7 @@
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="4" t="s">
         <v>31</v>
@@ -1169,7 +1225,7 @@
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -1179,7 +1235,7 @@
       </c>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -1189,7 +1245,7 @@
       </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="4" t="s">
         <v>32</v>
@@ -1201,7 +1257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="4" t="s">
         <v>35</v>
@@ -1213,7 +1269,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="2" t="s">
         <v>43</v>
@@ -1223,7 +1279,7 @@
       </c>
       <c r="D25" s="24"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -1235,7 +1291,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="4" t="s">
         <v>40</v>
@@ -1247,7 +1303,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="2" t="s">
         <v>41</v>
@@ -1257,7 +1313,7 @@
       </c>
       <c r="D28" s="24"/>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="2" t="s">
         <v>47</v>
@@ -1269,7 +1325,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="2" t="s">
         <v>44</v>
@@ -1281,7 +1337,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="4" t="s">
         <v>46</v>
@@ -1293,7 +1349,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="4" t="s">
         <v>54</v>

--- a/Adloori_gradingRubric.xlsx
+++ b/Adloori_gradingRubric.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533985\Downloads\Labexam1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Desktop\Labexam1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t xml:space="preserve">                                                    Question</t>
   </si>
@@ -241,6 +241,15 @@
   </si>
   <si>
     <t xml:space="preserve"> -1 for not decreasing the accountBalance if sufficient funds are available</t>
+  </si>
+  <si>
+    <t>For incorrect reading of account number and client name.</t>
+  </si>
+  <si>
+    <t>For not using getter methods of the instance variables.</t>
+  </si>
+  <si>
+    <t>For hard coding client name.</t>
   </si>
 </sst>
 </file>
@@ -939,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,6 +1223,9 @@
         <v>0.5</v>
       </c>
       <c r="D19" s="24"/>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
@@ -1224,6 +1236,9 @@
         <v>0.5</v>
       </c>
       <c r="D20" s="24"/>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
@@ -1234,6 +1249,9 @@
         <v>0.5</v>
       </c>
       <c r="D21" s="24"/>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
@@ -1244,6 +1262,9 @@
         <v>0.5</v>
       </c>
       <c r="D22" s="24"/>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
@@ -1256,6 +1277,9 @@
       <c r="D23" s="24" t="s">
         <v>36</v>
       </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
@@ -1268,6 +1292,9 @@
       <c r="D24" s="24" t="s">
         <v>37</v>
       </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
@@ -1278,6 +1305,9 @@
         <v>0.5</v>
       </c>
       <c r="D25" s="24"/>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
@@ -1290,6 +1320,9 @@
       <c r="D26" s="24" t="s">
         <v>39</v>
       </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
@@ -1302,6 +1335,9 @@
       <c r="D27" s="23" t="s">
         <v>25</v>
       </c>
+      <c r="E27">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
@@ -1312,6 +1348,9 @@
         <v>0.5</v>
       </c>
       <c r="D28" s="24"/>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
@@ -1324,6 +1363,12 @@
       <c r="D29" s="23" t="s">
         <v>42</v>
       </c>
+      <c r="E29">
+        <v>0.2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
@@ -1336,8 +1381,11 @@
       <c r="D30" s="23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="4" t="s">
         <v>46</v>
@@ -1347,6 +1395,12 @@
       </c>
       <c r="D31" s="23" t="s">
         <v>55</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1358,8 +1412,11 @@
         <v>0.5</v>
       </c>
       <c r="D32" s="24"/>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="4" t="s">
         <v>51</v>
@@ -1370,8 +1427,11 @@
       <c r="D33" s="23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="4" t="s">
         <v>49</v>
@@ -1382,8 +1442,14 @@
       <c r="D34" s="23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>0.25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="4" t="s">
         <v>53</v>
@@ -1392,8 +1458,11 @@
         <v>0.5</v>
       </c>
       <c r="D35" s="25"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
       <c r="B36" s="4" t="s">
         <v>50</v>
@@ -1402,8 +1471,11 @@
         <v>0.5</v>
       </c>
       <c r="D36" s="25"/>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
       <c r="B37" s="1" t="s">
         <v>56</v>
@@ -1414,8 +1486,11 @@
       <c r="D37" s="26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="27" t="s">
         <v>58</v>
@@ -1424,8 +1499,11 @@
         <v>0.5</v>
       </c>
       <c r="D38" s="19"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="10" t="s">
         <v>3</v>
@@ -1435,7 +1513,7 @@
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="12" t="s">
         <v>60</v>
